--- a/biology/Médecine/Akissi_Kouamé/Akissi_Kouamé.xlsx
+++ b/biology/Médecine/Akissi_Kouamé/Akissi_Kouamé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akissi_Kouam%C3%A9</t>
+          <t>Akissi_Kouamé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Akissi Kouamé épouse Lebahy, née le 1er janvier 1955, à Singrobo (Tiassalé, Côte d'Ivoire, AOF)[1] et morte le 29 septembre 2022 à Abidjan[2], est une médecin militaire ivoirienne, première femme générale de l'armée de Côte d'Ivoire[3]. Elle est directrice de la santé et de l’action sociale des armées[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akissi Kouamé épouse Lebahy, née le 1er janvier 1955, à Singrobo (Tiassalé, Côte d'Ivoire, AOF) et morte le 29 septembre 2022 à Abidjan, est une médecin militaire ivoirienne, première femme générale de l'armée de Côte d'Ivoire. Elle est directrice de la santé et de l’action sociale des armées.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akissi_Kouam%C3%A9</t>
+          <t>Akissi_Kouamé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,13 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kouamé Akissi commence l'école primaire à Singrobo, puis poursuit ses études à Agnibilékrou dans une congrégation religieuse[5]. Après son entrée en 6e, elle est orientée au lycée Sainte-Marie, puis choisit la faculté de médecine pour ses études universitaires.
-Le 10 janvier 1981, alors qu'elle est étudiante en cinquième année de médecine à l'université d’Abidjan, elle rejoint l'armée. De juillet à septembre 1981, elle suit la formation commune de base (FCB) à l'École des forces armées de Côte d'Ivoire à Bouaké[6]. Elle soutient sa thèse de doctorat le 23 juin 1983 et obtient son diplôme CES en Santé Publique[1].
-Elle poursuit sa formation en gestion de ressources de santé à Bruxelles, sur la prise en charge du VIH/sida à Tunis et un CES en gynécologie et obstétrique à Brest[1].
-Parcours militaire
-De juin à juillet 1983, elle retourne à l'École des forces armées de Côte d'Ivoire pour y suivre la formation aux cours d’officiers. À la suite de cette formation, elle reçoit les épaulettes de médecin lieutenant.
-En août 1983, elle devint la première dans l'Armée de Côte d'Ivoire à obtenir le brevet de parachutiste, à la compagnie des para-commandos du 1er bataillon d'Akouédo[6].
-Le 18 janvier 2012, elle est la première femme de son pays à devenir directrice de la santé et de l’action sociale des armées[4].
-Elle est la première femme de Côte d'Ivoire à obtenir le grade de général de brigade[7] le 6 août 2012[1].
-Engagement
-Engagement social
-Kouamé Akissi est présidente de la Mutuelle de Développement de Singrobo (Tiassale)[8].
-Elle est présidente aussi de la Fondation qui porte son nom[7].
-Pour les femmes
-Kouamé Akissi fonde le Réseau des Femmes Leaders de Côte d’Ivoire pour l'accès des femmes à toutes les professions et aux plus hauts postes.
-Elle est aussi présidente de l'Association des Femmes Cadres Supérieurs de la Santé (AFICSS)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kouamé Akissi commence l'école primaire à Singrobo, puis poursuit ses études à Agnibilékrou dans une congrégation religieuse. Après son entrée en 6e, elle est orientée au lycée Sainte-Marie, puis choisit la faculté de médecine pour ses études universitaires.
+Le 10 janvier 1981, alors qu'elle est étudiante en cinquième année de médecine à l'université d’Abidjan, elle rejoint l'armée. De juillet à septembre 1981, elle suit la formation commune de base (FCB) à l'École des forces armées de Côte d'Ivoire à Bouaké. Elle soutient sa thèse de doctorat le 23 juin 1983 et obtient son diplôme CES en Santé Publique.
+Elle poursuit sa formation en gestion de ressources de santé à Bruxelles, sur la prise en charge du VIH/sida à Tunis et un CES en gynécologie et obstétrique à Brest.
 </t>
         </is>
       </c>
@@ -538,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akissi_Kouam%C3%A9</t>
+          <t>Akissi_Kouamé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,15 +555,141 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours militaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De juin à juillet 1983, elle retourne à l'École des forces armées de Côte d'Ivoire pour y suivre la formation aux cours d’officiers. À la suite de cette formation, elle reçoit les épaulettes de médecin lieutenant.
+En août 1983, elle devint la première dans l'Armée de Côte d'Ivoire à obtenir le brevet de parachutiste, à la compagnie des para-commandos du 1er bataillon d'Akouédo.
+Le 18 janvier 2012, elle est la première femme de son pays à devenir directrice de la santé et de l’action sociale des armées.
+Elle est la première femme de Côte d'Ivoire à obtenir le grade de général de brigade le 6 août 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Akissi_Kouamé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Akissi_Kouam%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Engagement social</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kouamé Akissi est présidente de la Mutuelle de Développement de Singrobo (Tiassale).
+Elle est présidente aussi de la Fondation qui porte son nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Akissi_Kouamé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Akissi_Kouam%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pour les femmes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kouamé Akissi fonde le Réseau des Femmes Leaders de Côte d’Ivoire pour l'accès des femmes à toutes les professions et aux plus hauts postes.
+Elle est aussi présidente de l'Association des Femmes Cadres Supérieurs de la Santé (AFICSS).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Akissi_Kouamé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Akissi_Kouam%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>3 août 2012 : Chevalier de l'Ordre national
 8 mars 2012 : Chevalier de l'Ordre du Mérite Ivoirien
 1995 : Médaille militaire
-1995 : Lettre de Félicitation sur la manière de servir par le CEMA[8]</t>
+1995 : Lettre de Félicitation sur la manière de servir par le CEMA</t>
         </is>
       </c>
     </row>
